--- a/public/upload/export_excel/ข้อมูลมิเตอร์ไฟ06-2025.xlsx
+++ b/public/upload/export_excel/ข้อมูลมิเตอร์ไฟ06-2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
   <si>
     <t>ข้อมูล มิเตอร์ไฟ</t>
   </si>
@@ -44,25 +44,697 @@
     <t>ชั้น 1</t>
   </si>
   <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>A106</t>
+  </si>
+  <si>
+    <t>A107</t>
+  </si>
+  <si>
     <t>ชั้น 2</t>
   </si>
   <si>
+    <t>A201</t>
+  </si>
+  <si>
+    <t>A202</t>
+  </si>
+  <si>
+    <t>A203</t>
+  </si>
+  <si>
+    <t>A204</t>
+  </si>
+  <si>
+    <t>A205</t>
+  </si>
+  <si>
+    <t>A206</t>
+  </si>
+  <si>
+    <t>A207</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>A209</t>
+  </si>
+  <si>
+    <t>A210</t>
+  </si>
+  <si>
+    <t>A211</t>
+  </si>
+  <si>
+    <t>A213</t>
+  </si>
+  <si>
+    <t>A214</t>
+  </si>
+  <si>
+    <t>A215</t>
+  </si>
+  <si>
     <t>ชั้น 3</t>
   </si>
   <si>
+    <t>A301</t>
+  </si>
+  <si>
+    <t>A302</t>
+  </si>
+  <si>
+    <t>A303</t>
+  </si>
+  <si>
+    <t>A304</t>
+  </si>
+  <si>
+    <t>A305</t>
+  </si>
+  <si>
+    <t>A306</t>
+  </si>
+  <si>
+    <t>A307</t>
+  </si>
+  <si>
+    <t>A308</t>
+  </si>
+  <si>
+    <t>A309</t>
+  </si>
+  <si>
+    <t>A310</t>
+  </si>
+  <si>
+    <t>A311</t>
+  </si>
+  <si>
+    <t>A312</t>
+  </si>
+  <si>
+    <t>A313</t>
+  </si>
+  <si>
+    <t>A314</t>
+  </si>
+  <si>
+    <t>A315</t>
+  </si>
+  <si>
     <t>ชั้น 4</t>
   </si>
   <si>
+    <t>A401</t>
+  </si>
+  <si>
+    <t>A402</t>
+  </si>
+  <si>
+    <t>A403</t>
+  </si>
+  <si>
+    <t>A404</t>
+  </si>
+  <si>
+    <t>A405</t>
+  </si>
+  <si>
+    <t>A406</t>
+  </si>
+  <si>
+    <t>A407</t>
+  </si>
+  <si>
+    <t>A408</t>
+  </si>
+  <si>
+    <t>A409</t>
+  </si>
+  <si>
+    <t>A410</t>
+  </si>
+  <si>
+    <t>A411</t>
+  </si>
+  <si>
+    <t>A412</t>
+  </si>
+  <si>
+    <t>A413</t>
+  </si>
+  <si>
+    <t>A414</t>
+  </si>
+  <si>
+    <t>A415</t>
+  </si>
+  <si>
     <t>ชั้น 5</t>
   </si>
   <si>
+    <t>A501</t>
+  </si>
+  <si>
+    <t>A502</t>
+  </si>
+  <si>
+    <t>A503</t>
+  </si>
+  <si>
+    <t>A504</t>
+  </si>
+  <si>
+    <t>A505</t>
+  </si>
+  <si>
+    <t>A506</t>
+  </si>
+  <si>
+    <t>A507</t>
+  </si>
+  <si>
+    <t>A508</t>
+  </si>
+  <si>
+    <t>A509</t>
+  </si>
+  <si>
+    <t>A510</t>
+  </si>
+  <si>
+    <t>A511</t>
+  </si>
+  <si>
+    <t>A512</t>
+  </si>
+  <si>
+    <t>A513</t>
+  </si>
+  <si>
+    <t>A514</t>
+  </si>
+  <si>
+    <t>A515</t>
+  </si>
+  <si>
     <t>ชั้น 6</t>
   </si>
   <si>
+    <t>A601</t>
+  </si>
+  <si>
+    <t>A602</t>
+  </si>
+  <si>
+    <t>A603</t>
+  </si>
+  <si>
+    <t>A604</t>
+  </si>
+  <si>
+    <t>A605</t>
+  </si>
+  <si>
+    <t>A606</t>
+  </si>
+  <si>
+    <t>A607</t>
+  </si>
+  <si>
+    <t>A608</t>
+  </si>
+  <si>
+    <t>A609</t>
+  </si>
+  <si>
+    <t>A610</t>
+  </si>
+  <si>
+    <t>A611</t>
+  </si>
+  <si>
+    <t>A612</t>
+  </si>
+  <si>
+    <t>A613</t>
+  </si>
+  <si>
+    <t>A614</t>
+  </si>
+  <si>
+    <t>A615</t>
+  </si>
+  <si>
     <t>ชั้น 7</t>
   </si>
   <si>
+    <t>A701</t>
+  </si>
+  <si>
+    <t>A702</t>
+  </si>
+  <si>
+    <t>A703</t>
+  </si>
+  <si>
+    <t>A704</t>
+  </si>
+  <si>
+    <t>A705</t>
+  </si>
+  <si>
+    <t>A706</t>
+  </si>
+  <si>
+    <t>A707</t>
+  </si>
+  <si>
+    <t>A708</t>
+  </si>
+  <si>
+    <t>A709</t>
+  </si>
+  <si>
+    <t>A710</t>
+  </si>
+  <si>
+    <t>A711</t>
+  </si>
+  <si>
+    <t>A712</t>
+  </si>
+  <si>
+    <t>A713</t>
+  </si>
+  <si>
+    <t>A714</t>
+  </si>
+  <si>
+    <t>A715</t>
+  </si>
+  <si>
     <t>ชั้น 8</t>
+  </si>
+  <si>
+    <t>A801</t>
+  </si>
+  <si>
+    <t>A802</t>
+  </si>
+  <si>
+    <t>A803</t>
+  </si>
+  <si>
+    <t>A804</t>
+  </si>
+  <si>
+    <t>A805</t>
+  </si>
+  <si>
+    <t>A806</t>
+  </si>
+  <si>
+    <t>A807</t>
+  </si>
+  <si>
+    <t>A808</t>
+  </si>
+  <si>
+    <t>A809</t>
+  </si>
+  <si>
+    <t>A810</t>
+  </si>
+  <si>
+    <t>A811</t>
+  </si>
+  <si>
+    <t>A812</t>
+  </si>
+  <si>
+    <t>A813</t>
+  </si>
+  <si>
+    <t>A814</t>
+  </si>
+  <si>
+    <t>A815</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>B107</t>
+  </si>
+  <si>
+    <t>B108</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>B209</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>B211</t>
+  </si>
+  <si>
+    <t>B212</t>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>B214</t>
+  </si>
+  <si>
+    <t>B215</t>
+  </si>
+  <si>
+    <t>B301</t>
+  </si>
+  <si>
+    <t>B302</t>
+  </si>
+  <si>
+    <t>B303</t>
+  </si>
+  <si>
+    <t>B304</t>
+  </si>
+  <si>
+    <t>B305</t>
+  </si>
+  <si>
+    <t>B306</t>
+  </si>
+  <si>
+    <t>B307</t>
+  </si>
+  <si>
+    <t>B308</t>
+  </si>
+  <si>
+    <t>B309</t>
+  </si>
+  <si>
+    <t>B310</t>
+  </si>
+  <si>
+    <t>B311</t>
+  </si>
+  <si>
+    <t>B312</t>
+  </si>
+  <si>
+    <t>B313</t>
+  </si>
+  <si>
+    <t>B314</t>
+  </si>
+  <si>
+    <t>B315</t>
+  </si>
+  <si>
+    <t>B401</t>
+  </si>
+  <si>
+    <t>B402</t>
+  </si>
+  <si>
+    <t>B403</t>
+  </si>
+  <si>
+    <t>B404</t>
+  </si>
+  <si>
+    <t>B405</t>
+  </si>
+  <si>
+    <t>B406</t>
+  </si>
+  <si>
+    <t>B407</t>
+  </si>
+  <si>
+    <t>B408</t>
+  </si>
+  <si>
+    <t>B409</t>
+  </si>
+  <si>
+    <t>B410</t>
+  </si>
+  <si>
+    <t>B411</t>
+  </si>
+  <si>
+    <t>B412</t>
+  </si>
+  <si>
+    <t>B413</t>
+  </si>
+  <si>
+    <t>B414</t>
+  </si>
+  <si>
+    <t>B415</t>
+  </si>
+  <si>
+    <t>B501</t>
+  </si>
+  <si>
+    <t>B502</t>
+  </si>
+  <si>
+    <t>B503</t>
+  </si>
+  <si>
+    <t>B504</t>
+  </si>
+  <si>
+    <t>B505</t>
+  </si>
+  <si>
+    <t>B506</t>
+  </si>
+  <si>
+    <t>B507</t>
+  </si>
+  <si>
+    <t>B508</t>
+  </si>
+  <si>
+    <t>B509</t>
+  </si>
+  <si>
+    <t>B510</t>
+  </si>
+  <si>
+    <t>B511</t>
+  </si>
+  <si>
+    <t>B512</t>
+  </si>
+  <si>
+    <t>B513</t>
+  </si>
+  <si>
+    <t>B514</t>
+  </si>
+  <si>
+    <t>B515</t>
+  </si>
+  <si>
+    <t>B601</t>
+  </si>
+  <si>
+    <t>B602</t>
+  </si>
+  <si>
+    <t>B603</t>
+  </si>
+  <si>
+    <t>B604</t>
+  </si>
+  <si>
+    <t>B605</t>
+  </si>
+  <si>
+    <t>B606</t>
+  </si>
+  <si>
+    <t>B607</t>
+  </si>
+  <si>
+    <t>B608</t>
+  </si>
+  <si>
+    <t>B609</t>
+  </si>
+  <si>
+    <t>B610</t>
+  </si>
+  <si>
+    <t>B611</t>
+  </si>
+  <si>
+    <t>B612</t>
+  </si>
+  <si>
+    <t>B613</t>
+  </si>
+  <si>
+    <t>B614</t>
+  </si>
+  <si>
+    <t>B615</t>
+  </si>
+  <si>
+    <t>B701</t>
+  </si>
+  <si>
+    <t>B702</t>
+  </si>
+  <si>
+    <t>B703</t>
+  </si>
+  <si>
+    <t>B704</t>
+  </si>
+  <si>
+    <t>B705</t>
+  </si>
+  <si>
+    <t>B706</t>
+  </si>
+  <si>
+    <t>B707</t>
+  </si>
+  <si>
+    <t>B708</t>
+  </si>
+  <si>
+    <t>B709</t>
+  </si>
+  <si>
+    <t>B710</t>
+  </si>
+  <si>
+    <t>B711</t>
+  </si>
+  <si>
+    <t>B712</t>
+  </si>
+  <si>
+    <t>B713</t>
+  </si>
+  <si>
+    <t>B714</t>
+  </si>
+  <si>
+    <t>B715</t>
+  </si>
+  <si>
+    <t>B801</t>
+  </si>
+  <si>
+    <t>B802</t>
+  </si>
+  <si>
+    <t>B803</t>
+  </si>
+  <si>
+    <t>B804</t>
+  </si>
+  <si>
+    <t>B805</t>
+  </si>
+  <si>
+    <t>B806</t>
+  </si>
+  <si>
+    <t>B807</t>
+  </si>
+  <si>
+    <t>B808</t>
+  </si>
+  <si>
+    <t>B809</t>
+  </si>
+  <si>
+    <t>B810</t>
+  </si>
+  <si>
+    <t>B811</t>
+  </si>
+  <si>
+    <t>B812</t>
+  </si>
+  <si>
+    <t>B813</t>
+  </si>
+  <si>
+    <t>B814</t>
+  </si>
+  <si>
+    <t>B815</t>
   </si>
 </sst>
 </file>
@@ -461,82 +1133,94 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="1">
         <v>1259.52</v>
       </c>
       <c r="D5" s="1">
-        <v>1343.85</v>
+        <v>1371.64</v>
       </c>
       <c r="E5" s="1">
-        <v>84.33</v>
+        <v>112.12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="1">
         <v>1085.45</v>
       </c>
       <c r="D6" s="1">
-        <v>1194.04</v>
+        <v>1208.82</v>
       </c>
       <c r="E6" s="1">
-        <v>108.59</v>
+        <v>123.37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="1">
         <v>1063.18</v>
       </c>
       <c r="D7" s="1">
-        <v>1247.26</v>
+        <v>1301.28</v>
       </c>
       <c r="E7" s="1">
-        <v>184.08</v>
+        <v>238.1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="1">
         <v>387.88</v>
       </c>
       <c r="D8" s="1">
-        <v>416.9</v>
+        <v>423.03</v>
       </c>
       <c r="E8" s="1">
-        <v>29.02</v>
+        <v>35.15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="1">
         <v>521.96</v>
       </c>
       <c r="D9" s="1">
-        <v>567.01</v>
+        <v>583.06</v>
       </c>
       <c r="E9" s="1">
-        <v>45.05</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="1">
         <v>0.0</v>
       </c>
@@ -549,320 +1233,366 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="1">
         <v>0.04</v>
       </c>
       <c r="D11" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="1">
         <v>1344.79</v>
       </c>
       <c r="D12" s="1">
-        <v>1495.88</v>
+        <v>1529.19</v>
       </c>
       <c r="E12" s="1">
-        <v>151.09</v>
+        <v>184.4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="1">
         <v>525.98</v>
       </c>
       <c r="D13" s="1">
-        <v>582.26</v>
+        <v>597.77</v>
       </c>
       <c r="E13" s="1">
-        <v>56.28</v>
+        <v>71.79</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="1">
         <v>382.53</v>
       </c>
       <c r="D14" s="1">
-        <v>423.64</v>
+        <v>436.56</v>
       </c>
       <c r="E14" s="1">
-        <v>41.11</v>
+        <v>54.03</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="1">
         <v>595.31</v>
       </c>
       <c r="D15" s="1">
-        <v>649.79</v>
+        <v>664.92</v>
       </c>
       <c r="E15" s="1">
-        <v>54.48</v>
+        <v>69.61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="1">
         <v>291.65</v>
       </c>
       <c r="D16" s="1">
-        <v>319.45</v>
+        <v>328.8</v>
       </c>
       <c r="E16" s="1">
-        <v>27.8</v>
+        <v>37.15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="1">
         <v>452.51</v>
       </c>
       <c r="D17" s="1">
-        <v>493.22</v>
+        <v>508.39</v>
       </c>
       <c r="E17" s="1">
-        <v>40.71</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" s="1">
         <v>389.07</v>
       </c>
       <c r="D18" s="1">
-        <v>422.98</v>
+        <v>432.94</v>
       </c>
       <c r="E18" s="1">
-        <v>33.91</v>
+        <v>43.87</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C19" s="1">
         <v>694.24</v>
       </c>
       <c r="D19" s="1">
-        <v>744.13</v>
+        <v>759.92</v>
       </c>
       <c r="E19" s="1">
-        <v>49.89</v>
+        <v>65.68</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C20" s="1">
         <v>357.79</v>
       </c>
       <c r="D20" s="1">
-        <v>575.96</v>
+        <v>643.83</v>
       </c>
       <c r="E20" s="1">
-        <v>218.17</v>
+        <v>286.04</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C21" s="1">
         <v>776.92</v>
       </c>
       <c r="D21" s="1">
-        <v>852.83</v>
+        <v>876.8</v>
       </c>
       <c r="E21" s="1">
-        <v>75.91</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C22" s="1">
         <v>706.24</v>
       </c>
       <c r="D22" s="1">
-        <v>767.7</v>
+        <v>784.97</v>
       </c>
       <c r="E22" s="1">
-        <v>61.46</v>
+        <v>78.73</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C23" s="1">
         <v>363.02</v>
       </c>
       <c r="D23" s="1">
-        <v>395.8</v>
+        <v>403.19</v>
       </c>
       <c r="E23" s="1">
-        <v>32.78</v>
+        <v>40.17</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C24" s="1">
         <v>615.86</v>
       </c>
       <c r="D24" s="1">
-        <v>663.97</v>
+        <v>679.33</v>
       </c>
       <c r="E24" s="1">
-        <v>48.11</v>
+        <v>63.47</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C25" s="1">
         <v>217.95</v>
       </c>
       <c r="D25" s="1">
-        <v>252.38</v>
+        <v>263.6</v>
       </c>
       <c r="E25" s="1">
-        <v>34.43</v>
+        <v>45.65</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C26" s="1">
         <v>1040.76</v>
       </c>
       <c r="D26" s="1">
-        <v>1145.51</v>
+        <v>1164.17</v>
       </c>
       <c r="E26" s="1">
-        <v>104.75</v>
+        <v>123.41</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C27" s="1">
         <v>1586.38</v>
       </c>
       <c r="D27" s="1">
-        <v>1760.21</v>
+        <v>1797.73</v>
       </c>
       <c r="E27" s="1">
-        <v>173.83</v>
+        <v>211.35</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C28" s="1">
         <v>886.52</v>
       </c>
       <c r="D28" s="1">
-        <v>954.19</v>
+        <v>970.25</v>
       </c>
       <c r="E28" s="1">
-        <v>67.67</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C29" s="1">
         <v>565.72</v>
       </c>
       <c r="D29" s="1">
-        <v>612.62</v>
+        <v>626.82</v>
       </c>
       <c r="E29" s="1">
-        <v>46.9</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C30" s="1">
         <v>2830.82</v>
       </c>
       <c r="D30" s="1">
-        <v>3311.84</v>
+        <v>3449.27</v>
       </c>
       <c r="E30" s="1">
-        <v>481.02</v>
+        <v>618.45</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C31" s="1">
         <v>1052.51</v>
       </c>
       <c r="D31" s="1">
-        <v>1123.79</v>
+        <v>1146.6</v>
       </c>
       <c r="E31" s="1">
-        <v>71.28</v>
+        <v>94.09</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C32" s="1">
         <v>877.7</v>
       </c>
@@ -873,444 +1603,504 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C33" s="1">
         <v>1365.64</v>
       </c>
       <c r="D33" s="1">
-        <v>1482.12</v>
+        <v>1513.28</v>
       </c>
       <c r="E33" s="1">
-        <v>116.48</v>
+        <v>147.64</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C34" s="1">
         <v>994.75</v>
       </c>
       <c r="D34" s="1">
-        <v>1022.74</v>
+        <v>1031.88</v>
       </c>
       <c r="E34" s="1">
-        <v>27.99</v>
+        <v>37.13</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C35" s="1">
         <v>1657.9</v>
       </c>
       <c r="D35" s="1">
-        <v>1826.11</v>
+        <v>1863.86</v>
       </c>
       <c r="E35" s="1">
-        <v>168.21</v>
+        <v>205.96</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C36" s="1">
         <v>1021.47</v>
       </c>
       <c r="D36" s="1">
-        <v>1148.89</v>
+        <v>1179.47</v>
       </c>
       <c r="E36" s="1">
-        <v>127.42</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C37" s="1">
         <v>947.41</v>
       </c>
       <c r="D37" s="1">
-        <v>1011.73</v>
+        <v>1030.24</v>
       </c>
       <c r="E37" s="1">
-        <v>64.32</v>
+        <v>82.83</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C38" s="1">
         <v>1420.7</v>
       </c>
       <c r="D38" s="1">
-        <v>1501.73</v>
+        <v>1545.58</v>
       </c>
       <c r="E38" s="1">
-        <v>81.03</v>
+        <v>124.88</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C39" s="1">
         <v>2685.78</v>
       </c>
       <c r="D39" s="1">
-        <v>3001.31</v>
+        <v>3069.78</v>
       </c>
       <c r="E39" s="1">
-        <v>315.53</v>
+        <v>384.0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C40" s="1">
         <v>2031.46</v>
       </c>
       <c r="D40" s="1">
-        <v>2207.5</v>
+        <v>2257.86</v>
       </c>
       <c r="E40" s="1">
-        <v>176.04</v>
+        <v>226.4</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C41" s="1">
         <v>1217.58</v>
       </c>
       <c r="D41" s="1">
-        <v>1407.09</v>
+        <v>1479.41</v>
       </c>
       <c r="E41" s="1">
-        <v>189.51</v>
+        <v>261.83</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C42" s="1">
         <v>1249.08</v>
       </c>
       <c r="D42" s="1">
-        <v>1386.07</v>
+        <v>1428.25</v>
       </c>
       <c r="E42" s="1">
-        <v>136.99</v>
+        <v>179.17</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C43" s="1">
         <v>511.27</v>
       </c>
       <c r="D43" s="1">
-        <v>516.13</v>
+        <v>524.33</v>
       </c>
       <c r="E43" s="1">
-        <v>4.86</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C44" s="1">
         <v>2021.62</v>
       </c>
       <c r="D44" s="1">
-        <v>2210.95</v>
+        <v>2265.19</v>
       </c>
       <c r="E44" s="1">
-        <v>189.33</v>
+        <v>243.57</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C45" s="1">
         <v>886.89</v>
       </c>
       <c r="D45" s="1">
-        <v>977.92</v>
+        <v>1017.51</v>
       </c>
       <c r="E45" s="1">
-        <v>91.03</v>
+        <v>130.62</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C46" s="1">
         <v>1309.82</v>
       </c>
       <c r="D46" s="1">
-        <v>1438.73</v>
+        <v>1473.54</v>
       </c>
       <c r="E46" s="1">
-        <v>128.91</v>
+        <v>163.72</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C47" s="1">
         <v>1796.22</v>
       </c>
       <c r="D47" s="1">
-        <v>1863.29</v>
+        <v>1890.98</v>
       </c>
       <c r="E47" s="1">
-        <v>67.07</v>
+        <v>94.76</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C48" s="1">
         <v>1624.36</v>
       </c>
       <c r="D48" s="1">
-        <v>1649.65</v>
+        <v>1673.43</v>
       </c>
       <c r="E48" s="1">
-        <v>25.29</v>
+        <v>49.07</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C49" s="1">
         <v>768.86</v>
       </c>
       <c r="D49" s="1">
-        <v>797.29</v>
+        <v>805.63</v>
       </c>
       <c r="E49" s="1">
-        <v>28.43</v>
+        <v>36.77</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C50" s="1">
         <v>1267.23</v>
       </c>
       <c r="D50" s="1">
-        <v>1398.98</v>
+        <v>1435.6</v>
       </c>
       <c r="E50" s="1">
-        <v>131.75</v>
+        <v>168.37</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C51" s="1">
         <v>2212.16</v>
       </c>
       <c r="D51" s="1">
-        <v>2423.58</v>
+        <v>2481.19</v>
       </c>
       <c r="E51" s="1">
-        <v>211.42</v>
+        <v>269.03</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C52" s="1">
         <v>1639.44</v>
       </c>
       <c r="D52" s="1">
-        <v>1866.52</v>
+        <v>1925.34</v>
       </c>
       <c r="E52" s="1">
-        <v>227.08</v>
+        <v>285.9</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C53" s="1">
         <v>875.91</v>
       </c>
       <c r="D53" s="1">
-        <v>988.89</v>
+        <v>1016.81</v>
       </c>
       <c r="E53" s="1">
-        <v>112.98</v>
+        <v>140.9</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C54" s="1">
         <v>2261.12</v>
       </c>
       <c r="D54" s="1">
-        <v>2307.22</v>
+        <v>2333.15</v>
       </c>
       <c r="E54" s="1">
-        <v>46.1</v>
+        <v>72.03</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C55" s="1">
         <v>1750.97</v>
       </c>
       <c r="D55" s="1">
-        <v>1948.04</v>
+        <v>2004.22</v>
       </c>
       <c r="E55" s="1">
-        <v>197.07</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C56" s="1">
         <v>1429.45</v>
       </c>
       <c r="D56" s="1">
-        <v>1600.12</v>
+        <v>1641.71</v>
       </c>
       <c r="E56" s="1">
-        <v>170.67</v>
+        <v>212.26</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C57" s="1">
         <v>1615.94</v>
       </c>
       <c r="D57" s="1">
-        <v>1892.38</v>
+        <v>1990.43</v>
       </c>
       <c r="E57" s="1">
-        <v>276.44</v>
+        <v>374.49</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C58" s="1">
         <v>780.44</v>
       </c>
       <c r="D58" s="1">
-        <v>813.81</v>
+        <v>821.07</v>
       </c>
       <c r="E58" s="1">
-        <v>33.37</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C59" s="1">
         <v>290.03</v>
       </c>
       <c r="D59" s="1">
-        <v>319.71</v>
+        <v>330.09</v>
       </c>
       <c r="E59" s="1">
-        <v>29.68</v>
+        <v>40.06</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C60" s="1">
         <v>633.32</v>
       </c>
       <c r="D60" s="1">
-        <v>722.92</v>
+        <v>754.34</v>
       </c>
       <c r="E60" s="1">
-        <v>89.6</v>
+        <v>121.02</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C61" s="1">
         <v>2117.79</v>
       </c>
       <c r="D61" s="1">
-        <v>2322.38</v>
+        <v>2388.54</v>
       </c>
       <c r="E61" s="1">
-        <v>204.59</v>
+        <v>270.75</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C62" s="1">
         <v>165.53</v>
       </c>
@@ -1323,442 +2113,504 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C63" s="1">
         <v>2598.34</v>
       </c>
       <c r="D63" s="1">
-        <v>2853.42</v>
+        <v>2921.66</v>
       </c>
       <c r="E63" s="1">
-        <v>255.08</v>
+        <v>323.32</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C64" s="1">
         <v>548.23</v>
       </c>
       <c r="D64" s="1">
-        <v>618.27</v>
+        <v>634.54</v>
       </c>
       <c r="E64" s="1">
-        <v>70.04</v>
+        <v>86.31</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C65" s="1">
         <v>984.64</v>
       </c>
       <c r="D65" s="1">
-        <v>1074.2</v>
+        <v>1093.03</v>
       </c>
       <c r="E65" s="1">
-        <v>89.56</v>
+        <v>108.39</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C66" s="1">
         <v>2169.51</v>
       </c>
       <c r="D66" s="1">
-        <v>2453.65</v>
+        <v>2533.83</v>
       </c>
       <c r="E66" s="1">
-        <v>284.14</v>
+        <v>364.32</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C67" s="1">
         <v>422.76</v>
       </c>
       <c r="D67" s="1">
-        <v>482.66</v>
+        <v>484.84</v>
       </c>
       <c r="E67" s="1">
-        <v>59.9</v>
+        <v>62.08</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C68" s="1">
         <v>566.83</v>
       </c>
       <c r="D68" s="1">
-        <v>628.49</v>
+        <v>647.74</v>
       </c>
       <c r="E68" s="1">
-        <v>61.66</v>
+        <v>80.91</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C69" s="1">
         <v>1436.86</v>
       </c>
       <c r="D69" s="1">
-        <v>1565.88</v>
+        <v>1631.3</v>
       </c>
       <c r="E69" s="1">
-        <v>129.02</v>
+        <v>194.44</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C70" s="1">
         <v>631.2</v>
       </c>
       <c r="D70" s="1">
-        <v>690.55</v>
+        <v>715.64</v>
       </c>
       <c r="E70" s="1">
-        <v>59.35</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C71" s="1">
         <v>879.69</v>
       </c>
       <c r="D71" s="1">
-        <v>996.37</v>
+        <v>1011.02</v>
       </c>
       <c r="E71" s="1">
-        <v>116.68</v>
+        <v>131.33</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C72" s="1">
         <v>2008.38</v>
       </c>
       <c r="D72" s="1">
-        <v>2293.79</v>
+        <v>2330.8</v>
       </c>
       <c r="E72" s="1">
-        <v>285.41</v>
+        <v>322.42</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C73" s="1">
         <v>1988.77</v>
       </c>
       <c r="D73" s="1">
-        <v>2189.18</v>
+        <v>2242.66</v>
       </c>
       <c r="E73" s="1">
-        <v>200.41</v>
+        <v>253.89</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C74" s="1">
         <v>482.03</v>
       </c>
       <c r="D74" s="1">
-        <v>528.8</v>
+        <v>550.22</v>
       </c>
       <c r="E74" s="1">
-        <v>46.77</v>
+        <v>68.19</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C75" s="1">
         <v>1828.53</v>
       </c>
       <c r="D75" s="1">
-        <v>2009.03</v>
+        <v>2050.14</v>
       </c>
       <c r="E75" s="1">
-        <v>180.5</v>
+        <v>221.61</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C76" s="1">
         <v>1079.38</v>
       </c>
       <c r="D76" s="1">
-        <v>1172.29</v>
+        <v>1208.45</v>
       </c>
       <c r="E76" s="1">
-        <v>92.91</v>
+        <v>129.07</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C77" s="1">
         <v>532.26</v>
       </c>
       <c r="D77" s="1">
-        <v>603.51</v>
+        <v>621.1</v>
       </c>
       <c r="E77" s="1">
-        <v>71.25</v>
+        <v>88.84</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C78" s="1">
         <v>975.06</v>
       </c>
       <c r="D78" s="1">
-        <v>1086.84</v>
+        <v>1113.81</v>
       </c>
       <c r="E78" s="1">
-        <v>111.78</v>
+        <v>138.75</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C79" s="1">
         <v>1017.04</v>
       </c>
       <c r="D79" s="1">
-        <v>1022.91</v>
+        <v>1025.11</v>
       </c>
       <c r="E79" s="1">
-        <v>5.87</v>
+        <v>8.0699999999999</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C80" s="1">
         <v>2896.49</v>
       </c>
       <c r="D80" s="1">
-        <v>3204.65</v>
+        <v>3298.36</v>
       </c>
       <c r="E80" s="1">
-        <v>308.16</v>
+        <v>401.87</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C81" s="1">
         <v>472.05</v>
       </c>
       <c r="D81" s="1">
-        <v>510.64</v>
+        <v>521.66</v>
       </c>
       <c r="E81" s="1">
-        <v>38.59</v>
+        <v>49.61</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C82" s="1">
         <v>795.14</v>
       </c>
       <c r="D82" s="1">
-        <v>909.8</v>
+        <v>941.97</v>
       </c>
       <c r="E82" s="1">
-        <v>114.66</v>
+        <v>146.83</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C83" s="1">
         <v>928.47</v>
       </c>
       <c r="D83" s="1">
-        <v>1112.29</v>
+        <v>1162.68</v>
       </c>
       <c r="E83" s="1">
-        <v>183.82</v>
+        <v>234.21</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C84" s="1">
         <v>938.74</v>
       </c>
       <c r="D84" s="1">
-        <v>1043.96</v>
+        <v>1066.92</v>
       </c>
       <c r="E84" s="1">
-        <v>105.22</v>
+        <v>128.18</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C85" s="1">
         <v>1582.59</v>
       </c>
       <c r="D85" s="1">
-        <v>1701.25</v>
+        <v>1724.2</v>
       </c>
       <c r="E85" s="1">
-        <v>118.66</v>
+        <v>141.61</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C86" s="1">
         <v>817.19</v>
       </c>
       <c r="D86" s="1">
-        <v>823.41</v>
+        <v>907.82</v>
       </c>
       <c r="E86" s="1">
-        <v>6.2199999999999</v>
+        <v>90.63</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C87" s="1">
         <v>0.42</v>
       </c>
       <c r="D87" s="1">
-        <v>18.9</v>
+        <v>32.94</v>
       </c>
       <c r="E87" s="1">
-        <v>18.48</v>
+        <v>32.52</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C88" s="1">
         <v>0.31</v>
       </c>
       <c r="D88" s="1">
-        <v>0.42</v>
+        <v>14.87</v>
       </c>
       <c r="E88" s="1">
-        <v>0.11</v>
+        <v>14.56</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C89" s="1">
         <v>581.13</v>
       </c>
       <c r="D89" s="1">
-        <v>630.02</v>
+        <v>642.61</v>
       </c>
       <c r="E89" s="1">
-        <v>48.89</v>
+        <v>61.48</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C90" s="1">
         <v>0.08</v>
       </c>
       <c r="D90" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E90" s="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="C91" s="1">
         <v>220.03</v>
       </c>
       <c r="D91" s="1">
-        <v>247.79</v>
+        <v>255.57</v>
       </c>
       <c r="E91" s="1">
-        <v>27.76</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C92" s="1">
         <v>0.12</v>
       </c>
@@ -1769,159 +2621,181 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="C93" s="1">
         <v>2155.33</v>
       </c>
       <c r="D93" s="1">
-        <v>2360.39</v>
+        <v>2398.62</v>
       </c>
       <c r="E93" s="1">
-        <v>205.06</v>
+        <v>243.29</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C94" s="1">
         <v>417.64</v>
       </c>
       <c r="D94" s="1">
-        <v>471.97</v>
+        <v>483.41</v>
       </c>
       <c r="E94" s="1">
-        <v>54.33</v>
+        <v>65.77</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C95" s="1">
         <v>490.59</v>
       </c>
       <c r="D95" s="1">
-        <v>523.17</v>
+        <v>538.26</v>
       </c>
       <c r="E95" s="1">
-        <v>32.58</v>
+        <v>47.67</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C96" s="1">
         <v>59.96</v>
       </c>
       <c r="D96" s="1">
-        <v>77.79</v>
+        <v>86.86</v>
       </c>
       <c r="E96" s="1">
-        <v>17.83</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C97" s="1">
         <v>45.22</v>
       </c>
       <c r="D97" s="1">
-        <v>72.07</v>
+        <v>77.66</v>
       </c>
       <c r="E97" s="1">
-        <v>26.85</v>
+        <v>32.44</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C98" s="1">
         <v>2557.98</v>
       </c>
       <c r="D98" s="1">
-        <v>2797.62</v>
+        <v>2861.91</v>
       </c>
       <c r="E98" s="1">
-        <v>239.64</v>
+        <v>303.93</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="C99" s="1">
         <v>400.03</v>
       </c>
       <c r="D99" s="1">
-        <v>434.85</v>
+        <v>445.72</v>
       </c>
       <c r="E99" s="1">
-        <v>34.82</v>
+        <v>45.69</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C100" s="1">
         <v>1028.71</v>
       </c>
       <c r="D100" s="1">
-        <v>1118.48</v>
+        <v>1144.79</v>
       </c>
       <c r="E100" s="1">
-        <v>89.77</v>
+        <v>116.08</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="C101" s="1">
         <v>455.49</v>
       </c>
       <c r="D101" s="1">
-        <v>509.27</v>
+        <v>524.14</v>
       </c>
       <c r="E101" s="1">
-        <v>53.78</v>
+        <v>68.65</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="C102" s="1">
         <v>231.54</v>
       </c>
       <c r="D102" s="1">
-        <v>247.4</v>
+        <v>252.12</v>
       </c>
       <c r="E102" s="1">
-        <v>15.86</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C103" s="1">
         <v>0.14</v>
       </c>
@@ -1932,24 +2806,28 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="C104" s="1">
         <v>449.55</v>
       </c>
       <c r="D104" s="1">
-        <v>515.8</v>
+        <v>534.72</v>
       </c>
       <c r="E104" s="1">
-        <v>66.25</v>
+        <v>85.17</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C105" s="1">
         <v>0.3</v>
       </c>
@@ -1962,9 +2840,11 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C106" s="1">
         <v>0.43</v>
       </c>
@@ -1977,204 +2857,232 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C107" s="1">
         <v>95.34</v>
       </c>
       <c r="D107" s="1">
-        <v>131.82</v>
+        <v>143.55</v>
       </c>
       <c r="E107" s="1">
-        <v>36.48</v>
+        <v>48.21</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C108" s="1">
         <v>624.5</v>
       </c>
       <c r="D108" s="1">
-        <v>680.77</v>
+        <v>697.1</v>
       </c>
       <c r="E108" s="1">
-        <v>56.27</v>
+        <v>72.6</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C109" s="1">
         <v>3202.75</v>
       </c>
       <c r="D109" s="1">
-        <v>3467.97</v>
+        <v>3537.33</v>
       </c>
       <c r="E109" s="1">
-        <v>265.22</v>
+        <v>334.58</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="C110" s="1">
         <v>476.04</v>
       </c>
       <c r="D110" s="1">
-        <v>568.67</v>
+        <v>601.47</v>
       </c>
       <c r="E110" s="1">
-        <v>92.63</v>
+        <v>125.43</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C111" s="1">
         <v>1911.91</v>
       </c>
       <c r="D111" s="1">
-        <v>1983.75</v>
+        <v>2003.48</v>
       </c>
       <c r="E111" s="1">
-        <v>71.84</v>
+        <v>91.57</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="C112" s="1">
         <v>919.42</v>
       </c>
       <c r="D112" s="1">
-        <v>1202.17</v>
+        <v>1283.65</v>
       </c>
       <c r="E112" s="1">
-        <v>282.75</v>
+        <v>364.23</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C113" s="1">
         <v>253.67</v>
       </c>
       <c r="D113" s="1">
-        <v>270.63</v>
+        <v>275.13</v>
       </c>
       <c r="E113" s="1">
-        <v>16.96</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C114" s="1">
         <v>269.95</v>
       </c>
       <c r="D114" s="1">
-        <v>289.7</v>
+        <v>295.94</v>
       </c>
       <c r="E114" s="1">
-        <v>19.75</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C115" s="1">
         <v>451.7</v>
       </c>
       <c r="D115" s="1">
-        <v>487.38</v>
+        <v>497.27</v>
       </c>
       <c r="E115" s="1">
-        <v>35.68</v>
+        <v>45.57</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C116" s="1">
         <v>854.82</v>
       </c>
       <c r="D116" s="1">
-        <v>988.02</v>
+        <v>1036.2</v>
       </c>
       <c r="E116" s="1">
-        <v>133.2</v>
+        <v>181.38</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C117" s="1">
         <v>1726.83</v>
       </c>
       <c r="D117" s="1">
-        <v>1802.05</v>
+        <v>1815.36</v>
       </c>
       <c r="E117" s="1">
-        <v>75.22</v>
+        <v>88.53</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C118" s="1">
         <v>2074.66</v>
       </c>
       <c r="D118" s="1">
-        <v>2213.61</v>
+        <v>2253.24</v>
       </c>
       <c r="E118" s="1">
-        <v>138.95</v>
+        <v>178.58</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="C119" s="1">
         <v>8.38</v>
       </c>
       <c r="D119" s="1">
-        <v>10.19</v>
+        <v>10.57</v>
       </c>
       <c r="E119" s="1">
-        <v>1.81</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C120" s="1">
         <v>0.0</v>
       </c>
@@ -2187,202 +3095,230 @@
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C121" s="1">
         <v>2016.49</v>
       </c>
       <c r="D121" s="1">
-        <v>2257.77</v>
+        <v>2330.96</v>
       </c>
       <c r="E121" s="1">
-        <v>241.28</v>
+        <v>314.47</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C122" s="1">
         <v>371.5</v>
       </c>
       <c r="D122" s="1">
-        <v>400.7</v>
+        <v>408.56</v>
       </c>
       <c r="E122" s="1">
-        <v>29.2</v>
+        <v>37.06</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="1"/>
+      <c r="B123" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="C123" s="1">
         <v>1116.98</v>
       </c>
       <c r="D123" s="1">
-        <v>1192.34</v>
+        <v>1211.91</v>
       </c>
       <c r="E123" s="1">
-        <v>75.36</v>
+        <v>94.93</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C124" s="1">
         <v>1221.42</v>
       </c>
       <c r="D124" s="1">
-        <v>1367.36</v>
+        <v>1390.34</v>
       </c>
       <c r="E124" s="1">
-        <v>145.94</v>
+        <v>168.92</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="C125" s="1">
         <v>1305.5</v>
       </c>
       <c r="D125" s="1">
-        <v>1462.7</v>
+        <v>1497.68</v>
       </c>
       <c r="E125" s="1">
-        <v>157.2</v>
+        <v>192.18</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C126" s="1">
         <v>1415.51</v>
       </c>
       <c r="D126" s="1">
-        <v>1509.41</v>
+        <v>1552.94</v>
       </c>
       <c r="E126" s="1">
-        <v>93.9</v>
+        <v>137.43</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="C127" s="1">
         <v>437.31</v>
       </c>
       <c r="D127" s="1">
-        <v>473.26</v>
+        <v>485.64</v>
       </c>
       <c r="E127" s="1">
-        <v>35.95</v>
+        <v>48.33</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C128" s="1">
         <v>636.03</v>
       </c>
       <c r="D128" s="1">
-        <v>709.47</v>
+        <v>732.59</v>
       </c>
       <c r="E128" s="1">
-        <v>73.44</v>
+        <v>96.56</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="C129" s="1">
         <v>746.71</v>
       </c>
       <c r="D129" s="1">
-        <v>808.36</v>
+        <v>825.97</v>
       </c>
       <c r="E129" s="1">
-        <v>61.65</v>
+        <v>79.26</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="C130" s="1">
         <v>434.74</v>
       </c>
       <c r="D130" s="1">
-        <v>464.09</v>
+        <v>473.72</v>
       </c>
       <c r="E130" s="1">
-        <v>29.35</v>
+        <v>38.98</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C131" s="1">
         <v>1144.42</v>
       </c>
       <c r="D131" s="1">
-        <v>1263.37</v>
+        <v>1294.62</v>
       </c>
       <c r="E131" s="1">
-        <v>118.95</v>
+        <v>150.2</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="C132" s="1">
         <v>507.94</v>
       </c>
       <c r="D132" s="1">
-        <v>545.65</v>
+        <v>558.33</v>
       </c>
       <c r="E132" s="1">
-        <v>37.71</v>
+        <v>50.39</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="C133" s="1">
         <v>182.88</v>
       </c>
       <c r="D133" s="1">
-        <v>182.89</v>
+        <v>183.96</v>
       </c>
       <c r="E133" s="1">
-        <v>0.0099999999999909</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B134" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C134" s="1">
         <v>683.93</v>
       </c>
@@ -2395,129 +3331,147 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B135" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="C135" s="1">
         <v>1421.51</v>
       </c>
       <c r="D135" s="1">
-        <v>1534.25</v>
+        <v>1567.77</v>
       </c>
       <c r="E135" s="1">
-        <v>112.74</v>
+        <v>146.26</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B136" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C136" s="1">
         <v>631.67</v>
       </c>
       <c r="D136" s="1">
-        <v>665.49</v>
+        <v>675.97</v>
       </c>
       <c r="E136" s="1">
-        <v>33.82</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B137" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="C137" s="1">
         <v>614.15</v>
       </c>
       <c r="D137" s="1">
-        <v>663.59</v>
+        <v>676.45</v>
       </c>
       <c r="E137" s="1">
-        <v>49.44</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B138" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C138" s="1">
         <v>274.98</v>
       </c>
       <c r="D138" s="1">
-        <v>295.86</v>
+        <v>301.86</v>
       </c>
       <c r="E138" s="1">
-        <v>20.88</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B139" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C139" s="1">
         <v>970.66</v>
       </c>
       <c r="D139" s="1">
-        <v>1066.77</v>
+        <v>1093.31</v>
       </c>
       <c r="E139" s="1">
-        <v>96.11</v>
+        <v>122.65</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B140" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C140" s="1">
         <v>1047.61</v>
       </c>
       <c r="D140" s="1">
-        <v>1116.4</v>
+        <v>1131.39</v>
       </c>
       <c r="E140" s="1">
-        <v>68.79</v>
+        <v>83.78</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B141" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C141" s="1">
         <v>1412.14</v>
       </c>
       <c r="D141" s="1">
-        <v>1582.81</v>
+        <v>1632.89</v>
       </c>
       <c r="E141" s="1">
-        <v>170.67</v>
+        <v>220.75</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B142" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C142" s="1">
         <v>2766.1</v>
       </c>
       <c r="D142" s="1">
-        <v>2990.12</v>
+        <v>3076.98</v>
       </c>
       <c r="E142" s="1">
-        <v>224.02</v>
+        <v>310.88</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C143" s="1">
         <v>165.19</v>
       </c>
@@ -2528,579 +3482,657 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B144" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C144" s="1">
         <v>1862.18</v>
       </c>
       <c r="D144" s="1">
-        <v>2143.49</v>
+        <v>2221.97</v>
       </c>
       <c r="E144" s="1">
-        <v>281.31</v>
+        <v>359.79</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B145" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C145" s="1">
         <v>733.11</v>
       </c>
       <c r="D145" s="1">
-        <v>816.17</v>
+        <v>827.56</v>
       </c>
       <c r="E145" s="1">
-        <v>83.06</v>
+        <v>94.45</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B146" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C146" s="1">
         <v>998.45</v>
       </c>
       <c r="D146" s="1">
-        <v>1200.14</v>
+        <v>1253.95</v>
       </c>
       <c r="E146" s="1">
-        <v>201.69</v>
+        <v>255.5</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B147" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C147" s="1">
         <v>1938.3</v>
       </c>
       <c r="D147" s="1">
-        <v>2062.7</v>
+        <v>2097.76</v>
       </c>
       <c r="E147" s="1">
-        <v>124.4</v>
+        <v>159.46</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B148" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C148" s="1">
         <v>1758.67</v>
       </c>
       <c r="D148" s="1">
-        <v>2013.67</v>
+        <v>2072.67</v>
       </c>
       <c r="E148" s="1">
-        <v>255.0</v>
+        <v>314.0</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B149" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C149" s="1">
         <v>1554.22</v>
       </c>
       <c r="D149" s="1">
-        <v>1562.34</v>
+        <v>1564.36</v>
       </c>
       <c r="E149" s="1">
-        <v>8.1199999999999</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C150" s="1">
         <v>842.35</v>
       </c>
       <c r="D150" s="1">
-        <v>941.93</v>
+        <v>963.78</v>
       </c>
       <c r="E150" s="1">
-        <v>99.58</v>
+        <v>121.43</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B151" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C151" s="1">
         <v>707.77</v>
       </c>
       <c r="D151" s="1">
-        <v>803.39</v>
+        <v>830.07</v>
       </c>
       <c r="E151" s="1">
-        <v>95.62</v>
+        <v>122.3</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B152" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="C152" s="1">
         <v>865.7</v>
       </c>
       <c r="D152" s="1">
-        <v>957.73</v>
+        <v>988.65</v>
       </c>
       <c r="E152" s="1">
-        <v>92.03</v>
+        <v>122.95</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B153" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C153" s="1">
         <v>856.73</v>
       </c>
       <c r="D153" s="1">
-        <v>946.88</v>
+        <v>978.74</v>
       </c>
       <c r="E153" s="1">
-        <v>90.15</v>
+        <v>122.01</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C154" s="1">
         <v>1416.47</v>
       </c>
       <c r="D154" s="1">
-        <v>1582.38</v>
+        <v>1620.68</v>
       </c>
       <c r="E154" s="1">
-        <v>165.91</v>
+        <v>204.21</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C155" s="1">
         <v>533.77</v>
       </c>
       <c r="D155" s="1">
-        <v>558.3</v>
+        <v>563.94</v>
       </c>
       <c r="E155" s="1">
-        <v>24.53</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B156" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="C156" s="1">
         <v>1580.14</v>
       </c>
       <c r="D156" s="1">
-        <v>1728.5</v>
+        <v>1776.9</v>
       </c>
       <c r="E156" s="1">
-        <v>148.36</v>
+        <v>196.76</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B157" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="C157" s="1">
         <v>1021.1</v>
       </c>
       <c r="D157" s="1">
-        <v>1072.23</v>
+        <v>1083.2</v>
       </c>
       <c r="E157" s="1">
-        <v>51.13</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B158" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="C158" s="1">
         <v>1264.34</v>
       </c>
       <c r="D158" s="1">
-        <v>1298.57</v>
+        <v>1307.91</v>
       </c>
       <c r="E158" s="1">
-        <v>34.23</v>
+        <v>43.57</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B159" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="C159" s="1">
         <v>587.01</v>
       </c>
       <c r="D159" s="1">
-        <v>615.69</v>
+        <v>628.73</v>
       </c>
       <c r="E159" s="1">
-        <v>28.68</v>
+        <v>41.72</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="C160" s="1">
         <v>2419.89</v>
       </c>
       <c r="D160" s="1">
-        <v>2649.93</v>
+        <v>2709.55</v>
       </c>
       <c r="E160" s="1">
-        <v>230.04</v>
+        <v>289.66</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="C161" s="1">
         <v>1277.28</v>
       </c>
       <c r="D161" s="1">
-        <v>1386.82</v>
+        <v>1408.42</v>
       </c>
       <c r="E161" s="1">
-        <v>109.54</v>
+        <v>131.14</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B162" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C162" s="1">
         <v>624.07</v>
       </c>
       <c r="D162" s="1">
-        <v>866.71</v>
+        <v>916.24</v>
       </c>
       <c r="E162" s="1">
-        <v>242.64</v>
+        <v>292.17</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B163" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="C163" s="1">
         <v>869.66</v>
       </c>
       <c r="D163" s="1">
-        <v>938.79</v>
+        <v>954.98</v>
       </c>
       <c r="E163" s="1">
-        <v>69.13</v>
+        <v>85.32</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B164" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="C164" s="1">
         <v>1601.74</v>
       </c>
       <c r="D164" s="1">
-        <v>1864.58</v>
+        <v>1930.83</v>
       </c>
       <c r="E164" s="1">
-        <v>262.84</v>
+        <v>329.09</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B165" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="C165" s="1">
         <v>755.45</v>
       </c>
       <c r="D165" s="1">
-        <v>829.24</v>
+        <v>847.39</v>
       </c>
       <c r="E165" s="1">
-        <v>73.79</v>
+        <v>91.94</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B166" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="C166" s="1">
         <v>1824.52</v>
       </c>
       <c r="D166" s="1">
-        <v>1993.45</v>
+        <v>2051.59</v>
       </c>
       <c r="E166" s="1">
-        <v>168.93</v>
+        <v>227.07</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B167" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="C167" s="1">
         <v>117.21</v>
       </c>
       <c r="D167" s="1">
-        <v>133.76</v>
+        <v>139.12</v>
       </c>
       <c r="E167" s="1">
-        <v>16.55</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B168" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="C168" s="1">
         <v>610.98</v>
       </c>
       <c r="D168" s="1">
-        <v>658.9</v>
+        <v>672.68</v>
       </c>
       <c r="E168" s="1">
-        <v>47.92</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B169" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="C169" s="1">
         <v>3845.24</v>
       </c>
       <c r="D169" s="1">
-        <v>4046.85</v>
+        <v>4104.68</v>
       </c>
       <c r="E169" s="1">
-        <v>201.61</v>
+        <v>259.44</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B170" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="C170" s="1">
         <v>911.88</v>
       </c>
       <c r="D170" s="1">
-        <v>1007.32</v>
+        <v>1021.42</v>
       </c>
       <c r="E170" s="1">
-        <v>95.44</v>
+        <v>109.54</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B171" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="C171" s="1">
         <v>2209.35</v>
       </c>
       <c r="D171" s="1">
-        <v>2462.1</v>
+        <v>2507.25</v>
       </c>
       <c r="E171" s="1">
-        <v>252.75</v>
+        <v>297.9</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B172" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C172" s="1">
         <v>273.34</v>
       </c>
       <c r="D172" s="1">
-        <v>312.32</v>
+        <v>322.07</v>
       </c>
       <c r="E172" s="1">
-        <v>38.98</v>
+        <v>48.73</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B173" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C173" s="1">
         <v>1670.63</v>
       </c>
       <c r="D173" s="1">
-        <v>1831.99</v>
+        <v>1832.0</v>
       </c>
       <c r="E173" s="1">
-        <v>161.36</v>
+        <v>161.37</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B174" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="C174" s="1">
         <v>2938.09</v>
       </c>
       <c r="D174" s="1">
-        <v>3288.56</v>
+        <v>3374.76</v>
       </c>
       <c r="E174" s="1">
-        <v>350.47</v>
+        <v>436.67</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B175" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C175" s="1">
         <v>1328.95</v>
       </c>
       <c r="D175" s="1">
-        <v>1505.24</v>
+        <v>1550.1</v>
       </c>
       <c r="E175" s="1">
-        <v>176.29</v>
+        <v>221.15</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B176" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C176" s="1">
         <v>1178.19</v>
       </c>
       <c r="D176" s="1">
-        <v>1277.07</v>
+        <v>1302.65</v>
       </c>
       <c r="E176" s="1">
-        <v>98.88</v>
+        <v>124.46</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B177" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C177" s="1">
         <v>1069.65</v>
       </c>
       <c r="D177" s="1">
-        <v>1191.82</v>
+        <v>1212.33</v>
       </c>
       <c r="E177" s="1">
-        <v>122.17</v>
+        <v>142.68</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B178" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C178" s="1">
         <v>2272.53</v>
       </c>
       <c r="D178" s="1">
-        <v>2442.92</v>
+        <v>2488.97</v>
       </c>
       <c r="E178" s="1">
-        <v>170.39</v>
+        <v>216.44</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B179" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="C179" s="1">
         <v>591.91</v>
       </c>
       <c r="D179" s="1">
-        <v>630.53</v>
+        <v>638.02</v>
       </c>
       <c r="E179" s="1">
-        <v>38.62</v>
+        <v>46.11</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B180" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="C180" s="1">
         <v>644.89</v>
       </c>
       <c r="D180" s="1">
-        <v>689.74</v>
+        <v>697.33</v>
       </c>
       <c r="E180" s="1">
-        <v>44.85</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B181" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="C181" s="1">
         <v>3359.54</v>
       </c>
       <c r="D181" s="1">
-        <v>3626.09</v>
+        <v>3696.13</v>
       </c>
       <c r="E181" s="1">
-        <v>266.55</v>
+        <v>336.59</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B182" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C182" s="1">
         <v>0.0</v>
       </c>
@@ -3111,129 +4143,147 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B183" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="C183" s="1">
         <v>681.3</v>
       </c>
       <c r="D183" s="1">
-        <v>743.32</v>
+        <v>759.9</v>
       </c>
       <c r="E183" s="1">
-        <v>62.02</v>
+        <v>78.6</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B184" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C184" s="1">
         <v>222.48</v>
       </c>
       <c r="D184" s="1">
-        <v>254.01</v>
+        <v>263.74</v>
       </c>
       <c r="E184" s="1">
-        <v>31.53</v>
+        <v>41.26</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B185" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C185" s="1">
         <v>1936.96</v>
       </c>
       <c r="D185" s="1">
-        <v>2089.41</v>
+        <v>2130.65</v>
       </c>
       <c r="E185" s="1">
-        <v>152.45</v>
+        <v>193.69</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B186" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="C186" s="1">
         <v>346.38</v>
       </c>
       <c r="D186" s="1">
-        <v>396.06</v>
+        <v>407.38</v>
       </c>
       <c r="E186" s="1">
-        <v>49.68</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B187" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C187" s="1">
         <v>760.21</v>
       </c>
       <c r="D187" s="1">
-        <v>834.79</v>
+        <v>856.13</v>
       </c>
       <c r="E187" s="1">
-        <v>74.58</v>
+        <v>95.92</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B188" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="C188" s="1">
         <v>691.21</v>
       </c>
       <c r="D188" s="1">
-        <v>723.21</v>
+        <v>731.31</v>
       </c>
       <c r="E188" s="1">
-        <v>32.0</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B189" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="C189" s="1">
         <v>698.02</v>
       </c>
       <c r="D189" s="1">
-        <v>851.84</v>
+        <v>898.94</v>
       </c>
       <c r="E189" s="1">
-        <v>153.82</v>
+        <v>200.92</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B190" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C190" s="1">
         <v>1583.38</v>
       </c>
       <c r="D190" s="1">
-        <v>1744.34</v>
+        <v>1800.88</v>
       </c>
       <c r="E190" s="1">
-        <v>160.96</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B191" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="C191" s="1">
         <v>1686.91</v>
       </c>
@@ -3246,144 +4296,164 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B192" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C192" s="1">
         <v>959.59</v>
       </c>
       <c r="D192" s="1">
-        <v>1105.85</v>
+        <v>1127.42</v>
       </c>
       <c r="E192" s="1">
-        <v>146.26</v>
+        <v>167.83</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B193" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C193" s="1">
         <v>588.1</v>
       </c>
       <c r="D193" s="1">
-        <v>623.05</v>
+        <v>633.49</v>
       </c>
       <c r="E193" s="1">
-        <v>34.95</v>
+        <v>45.39</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B194" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C194" s="1">
         <v>1791.65</v>
       </c>
       <c r="D194" s="1">
-        <v>1935.95</v>
+        <v>1995.6</v>
       </c>
       <c r="E194" s="1">
-        <v>144.3</v>
+        <v>203.95</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B195" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="C195" s="1">
         <v>584.97</v>
       </c>
       <c r="D195" s="1">
-        <v>647.41</v>
+        <v>671.39</v>
       </c>
       <c r="E195" s="1">
-        <v>62.44</v>
+        <v>86.42</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B196" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C196" s="1">
         <v>1305.76</v>
       </c>
       <c r="D196" s="1">
-        <v>1530.67</v>
+        <v>1589.98</v>
       </c>
       <c r="E196" s="1">
-        <v>224.91</v>
+        <v>284.22</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B197" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C197" s="1">
         <v>791.49</v>
       </c>
       <c r="D197" s="1">
-        <v>860.69</v>
+        <v>876.03</v>
       </c>
       <c r="E197" s="1">
-        <v>69.2</v>
+        <v>84.54</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B198" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C198" s="1">
         <v>475.59</v>
       </c>
       <c r="D198" s="1">
-        <v>512.94</v>
+        <v>526.34</v>
       </c>
       <c r="E198" s="1">
-        <v>37.35</v>
+        <v>50.75</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B199" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="C199" s="1">
         <v>2259.16</v>
       </c>
       <c r="D199" s="1">
-        <v>2447.31</v>
+        <v>2509.58</v>
       </c>
       <c r="E199" s="1">
-        <v>188.15</v>
+        <v>250.42</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B200" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C200" s="1">
         <v>25.22</v>
       </c>
       <c r="D200" s="1">
-        <v>71.75</v>
+        <v>87.5</v>
       </c>
       <c r="E200" s="1">
-        <v>46.53</v>
+        <v>62.28</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B201" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C201" s="1">
         <v>0.2</v>
       </c>
@@ -3394,24 +4464,28 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B202" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C202" s="1">
         <v>125.04</v>
       </c>
       <c r="D202" s="1">
-        <v>225.46</v>
+        <v>259.6</v>
       </c>
       <c r="E202" s="1">
-        <v>100.42</v>
+        <v>134.56</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B203" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="C203" s="1">
         <v>0.05</v>
       </c>
@@ -3422,24 +4496,28 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B204" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="C204" s="1">
         <v>173.13</v>
       </c>
       <c r="D204" s="1">
-        <v>223.12</v>
+        <v>235.75</v>
       </c>
       <c r="E204" s="1">
-        <v>49.99</v>
+        <v>62.62</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B205" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="C205" s="1">
         <v>43.55</v>
       </c>
@@ -3450,54 +4528,62 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B206" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="C206" s="1">
         <v>79.49</v>
       </c>
       <c r="D206" s="1">
-        <v>80.48</v>
+        <v>97.55</v>
       </c>
       <c r="E206" s="1">
-        <v>0.99000000000001</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B207" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="C207" s="1">
         <v>716.22</v>
       </c>
       <c r="D207" s="1">
-        <v>784.86</v>
+        <v>802.66</v>
       </c>
       <c r="E207" s="1">
-        <v>68.64</v>
+        <v>86.44</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B208" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="C208" s="1">
         <v>1051.71</v>
       </c>
       <c r="D208" s="1">
-        <v>1138.79</v>
+        <v>1161.91</v>
       </c>
       <c r="E208" s="1">
-        <v>87.08</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B209" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="C209" s="1">
         <v>0.07</v>
       </c>
@@ -3510,99 +4596,113 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B210" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="C210" s="1">
         <v>1156.52</v>
       </c>
       <c r="D210" s="1">
-        <v>1229.08</v>
+        <v>1254.86</v>
       </c>
       <c r="E210" s="1">
-        <v>72.56</v>
+        <v>98.34</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B211" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C211" s="1">
         <v>273.14</v>
       </c>
       <c r="D211" s="1">
-        <v>296.35</v>
+        <v>304.07</v>
       </c>
       <c r="E211" s="1">
-        <v>23.21</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B212" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="C212" s="1">
         <v>1979.63</v>
       </c>
       <c r="D212" s="1">
-        <v>2146.73</v>
+        <v>2191.8</v>
       </c>
       <c r="E212" s="1">
-        <v>167.1</v>
+        <v>212.17</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B213" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="C213" s="1">
         <v>765.89</v>
       </c>
       <c r="D213" s="1">
-        <v>808.95</v>
+        <v>812.56</v>
       </c>
       <c r="E213" s="1">
-        <v>43.06</v>
+        <v>46.67</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B214" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="C214" s="1">
         <v>1667.47</v>
       </c>
       <c r="D214" s="1">
-        <v>1802.94</v>
+        <v>1836.75</v>
       </c>
       <c r="E214" s="1">
-        <v>135.47</v>
+        <v>169.28</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B215" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C215" s="1">
         <v>114.22</v>
       </c>
       <c r="D215" s="1">
-        <v>193.08</v>
+        <v>216.64</v>
       </c>
       <c r="E215" s="1">
-        <v>78.86</v>
+        <v>102.42</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B216" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="C216" s="1">
         <v>0.12</v>
       </c>
@@ -3613,24 +4713,28 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B217" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="C217" s="1">
         <v>957.47</v>
       </c>
       <c r="D217" s="1">
-        <v>1046.07</v>
+        <v>1073.17</v>
       </c>
       <c r="E217" s="1">
-        <v>88.6</v>
+        <v>115.7</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B218" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="C218" s="1">
         <v>0.02</v>
       </c>
@@ -3641,54 +4745,62 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B219" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="C219" s="1">
         <v>1280.41</v>
       </c>
       <c r="D219" s="1">
-        <v>1406.01</v>
+        <v>1432.67</v>
       </c>
       <c r="E219" s="1">
-        <v>125.6</v>
+        <v>152.26</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="C220" s="1">
         <v>341.92</v>
       </c>
       <c r="D220" s="1">
-        <v>373.74</v>
+        <v>382.22</v>
       </c>
       <c r="E220" s="1">
-        <v>31.82</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B221" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="C221" s="1">
         <v>97.45</v>
       </c>
       <c r="D221" s="1">
-        <v>137.53</v>
+        <v>143.78</v>
       </c>
       <c r="E221" s="1">
-        <v>40.08</v>
+        <v>46.33</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B222" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="C222" s="1">
         <v>266.18</v>
       </c>
@@ -3699,92 +4811,104 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="C223" s="1">
         <v>765.82</v>
       </c>
       <c r="D223" s="1">
-        <v>858.42</v>
+        <v>875.58</v>
       </c>
       <c r="E223" s="1">
-        <v>92.6</v>
+        <v>109.76</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B224" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C224" s="1">
         <v>420.05</v>
       </c>
       <c r="D224" s="1">
-        <v>445.26</v>
+        <v>451.19</v>
       </c>
       <c r="E224" s="1">
-        <v>25.21</v>
+        <v>31.14</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B225" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="C225" s="1">
         <v>776.83</v>
       </c>
       <c r="D225" s="1">
-        <v>1001.69</v>
+        <v>1043.33</v>
       </c>
       <c r="E225" s="1">
-        <v>224.86</v>
+        <v>266.5</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B226" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="C226" s="1">
         <v>530.06</v>
       </c>
       <c r="D226" s="1">
-        <v>573.3</v>
+        <v>584.75</v>
       </c>
       <c r="E226" s="1">
-        <v>43.24</v>
+        <v>54.69</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B227" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="C227" s="1">
         <v>1209.25</v>
       </c>
       <c r="D227" s="1">
-        <v>1277.73</v>
+        <v>1293.48</v>
       </c>
       <c r="E227" s="1">
-        <v>68.48</v>
+        <v>84.23</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B228" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="C228" s="1">
         <v>709.38</v>
       </c>
       <c r="D228" s="1">
-        <v>886.52</v>
+        <v>909.54</v>
       </c>
       <c r="E228" s="1">
-        <v>177.14</v>
+        <v>200.16</v>
       </c>
     </row>
   </sheetData>
